--- a/medicine/Pharmacie/Rétapamuline/Rétapamuline.xlsx
+++ b/medicine/Pharmacie/Rétapamuline/Rétapamuline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9tapamuline</t>
+          <t>Rétapamuline</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La rétapamuline est un antibiotique de la famille des pleuromutilines.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9tapamuline</t>
+          <t>Rétapamuline</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Spectre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son spectre est essentiellement dirigé contre les bactéries Gram positif, dont le staphylocoque doré. En particulier, il est actif contre des souches résistance à la méticilline[1] mais des résistances commencent à apparaître[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son spectre est essentiellement dirigé contre les bactéries Gram positif, dont le staphylocoque doré. En particulier, il est actif contre des souches résistance à la méticilline mais des résistances commencent à apparaître.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9tapamuline</t>
+          <t>Rétapamuline</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous forme de pommade, l'antibiotique ne pénètre que peu dans le sang.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A9tapamuline</t>
+          <t>Rétapamuline</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le taux de réponse, dans l'impétigo, est proche de 85%[3], avec une efficacité comparable à celle de l'acide fusidique[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le taux de réponse, dans l'impétigo, est proche de 85%, avec une efficacité comparable à celle de l'acide fusidique.
 </t>
         </is>
       </c>
